--- a/Datos/Database by set/Set with text box/Xlsx sets/Journey into Nyx Hero's Path (THP3).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Journey into Nyx Hero's Path (THP3).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,287 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Axe of the Warmonger</t>
+          <t>('Axe of the Warmonger', ['Hero Artifact — Equipment', 'Equipped creature gets +2/+1 and has haste.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hero Artifact — Equipment</t>
+          <t>('Bow of the Hunter', ['Hero Artifact — Equipment', 'Equipped creature has “{T}: This creature deals 2 damage to any target.”', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Equipped creature gets +2/+1 and has haste.</t>
+          <t>('Cloak of the Philosopher', ['Hero Artifact — Equipment', 'Equipped creature gets +1/+1.', '{2}: Untap equipped creature.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Equip {2}</t>
+          <t>('Enhancement Stickers', ['Card', 'Equipped creature has vigilance and can block an additional creature each combat.', 'Whenever equipped creature deals damage, put a +1/+1 counter on it.', 'Whenever equipped creature deals damage, scry 1.', 'Equipped creature has protection from enchantments.', 'Equipped creature has double strike.', 'Whenever equipped creature deals damage, put a 1/1 white Soldier creature token onto the battlefield.', 'Whenever equipped creature deals damage, untap two target lands.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bow of the Hunter</t>
+          <t>('Hall of Triumph', ['{3}', 'Legendary Artifact', 'As Hall of Triumph enters the battlefield, choose a color.', 'Creatures you control of the chosen color get +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hero Artifact — Equipment</t>
+          <t>('Lash of the Tyrant', ['Hero Artifact — Equipment', 'Equipped creature gets +1/+2 and has deathtouch.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Equipped creature has “{T}: This creature deals 2 damage to any target.”</t>
+          <t>('Spear of the General', ['Hero Artifact — Equipment', 'Equipped creature gets +2/+0 and has first strike.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Equip {2}</t>
+          <t>('The Champion', ['Hero', '{2}, {T}, Exile The Champion: Search your library for a legendary artifact card that isn’t a creature, reveal it, and put it onto the battlefield. Then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cloak of the Philosopher</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hero Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Equipped creature gets +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{2}: Untap equipped creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Enhancement Stickers</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Equipped creature has vigilance and can block an additional creature each combat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals damage, put a +1/+1 counter on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals damage, scry 1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Equipped creature has protection from enchantments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Equipped creature has double strike.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals damage, put a 1/1 white Soldier creature token onto the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals damage, untap two target lands.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Hall of Triumph</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Legendary Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>As Hall of Triumph enters the battlefield, choose a color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creatures you control of the chosen color get +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lash of the Tyrant</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Hero Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Equipped creature gets +1/+2 and has deathtouch.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Spear of the General</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Hero Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Equipped creature gets +2/+0 and has first strike.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The Champion</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{2}, {T}, Exile The Champion: Search your library for a legendary artifact card that isn’t a creature, reveal it, and put it onto the battlefield. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>The Destined</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Spells you control that target a creature you control cost {2} less to cast.</t>
+          <t>('The Destined', ['Hero', 'Spells you control that target a creature you control cost {2} less to cast.'])</t>
         </is>
       </c>
     </row>
